--- a/控制信号101.xlsx
+++ b/控制信号101.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指令译码" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="317">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRAV</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -331,23 +327,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>00111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>01111</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>00000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01011</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -445,10 +429,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>R[y] ← R[y] &gt;&gt; R[x](算术)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Regwrite</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -681,39 +661,219 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写回寄存器(0为ALU，1为MEM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制信号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemtoReg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeReg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imm分3位，第一位为0或符号扩展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Zero</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写回寄存器(0为ALU，1为MEM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asrc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH</t>
+    <t>Sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后两位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3--0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7--0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后两位是Imm在指令译码中的位数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -721,199 +881,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sign10-0 (B)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsrc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>imm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制信号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemtoReg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1111</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SpeReg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imm分3位，第一位为0或符号扩展</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后两位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4--2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3--0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4--0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7--0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后两位是Imm在指令译码中的位数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign10-0 (B)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
+    <t>0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -923,56 +931,6 @@
   <si>
     <t>0000</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>0006</t>
   </si>
   <si>
     <t>1111</t>
@@ -1206,6 +1164,72 @@
   </si>
   <si>
     <t>SW_SP</t>
+  </si>
+  <si>
+    <t>NOT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRLV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRLV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R[y] ← R[y] &gt;&gt; R[x](逻辑)</t>
+    <rPh sb="20" eb="21">
+      <t>luo'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>11101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DstReg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1536,7 +1560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1645,6 +1669,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1664,27 +1715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1998,7 +2028,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2018,63 +2048,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="I1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="40"/>
+      <c r="I1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="49"/>
       <c r="R1" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S1" s="10"/>
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="I2" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2088,55 +2118,55 @@
         <v>32</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="23" t="s">
-        <v>65</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="O3" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>133</v>
-      </c>
       <c r="T3" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.15">
@@ -2150,38 +2180,38 @@
         <v>33</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="42"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P4" s="14">
         <v>0</v>
@@ -2210,40 +2240,40 @@
         <v>34</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P5" s="14">
         <v>0</v>
@@ -2272,38 +2302,38 @@
         <v>34</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="44"/>
+      <c r="G6" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="38"/>
       <c r="I6" s="14">
         <v>1</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -2332,40 +2362,40 @@
         <v>35</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="I7" s="14">
         <v>1</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P7" s="14">
         <v>0</v>
@@ -2394,40 +2424,40 @@
         <v>35</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P8" s="14">
         <v>0</v>
@@ -2456,36 +2486,36 @@
         <v>36</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+        <v>52</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="14">
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P9" s="14">
         <v>0</v>
@@ -2514,38 +2544,38 @@
         <v>36</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="14">
         <v>0</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N10" s="14">
         <v>0</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -2574,38 +2604,38 @@
         <v>36</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="47"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="14">
         <v>0</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N11" s="14">
         <v>0</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -2634,38 +2664,38 @@
         <v>36</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="42"/>
       <c r="I12" s="14">
         <v>0</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N12" s="14">
         <v>0</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P12" s="14">
         <v>0</v>
@@ -2694,40 +2724,40 @@
         <v>35</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="14">
         <v>1</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P13" s="14">
         <v>0</v>
@@ -2756,38 +2786,38 @@
         <v>37</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="43"/>
       <c r="I14" s="14">
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -2816,38 +2846,38 @@
         <v>34</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="14">
         <v>1</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K15" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>148</v>
-      </c>
       <c r="N15" s="14">
         <v>0</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P15" s="14">
         <v>0</v>
@@ -2876,40 +2906,40 @@
         <v>34</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="I16" s="14">
         <v>1</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P16" s="14">
         <v>1</v>
@@ -2938,38 +2968,38 @@
         <v>34</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="14">
         <v>1</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P17" s="14">
         <v>1</v>
@@ -2998,38 +3028,38 @@
         <v>35</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="14">
         <v>1</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="N18" s="14">
         <v>0</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
@@ -3058,38 +3088,38 @@
         <v>35</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="49"/>
+        <v>41</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="43"/>
       <c r="I19" s="14">
         <v>1</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N19" s="14">
         <v>0</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="P19" s="14">
         <v>0</v>
@@ -3118,38 +3148,38 @@
         <v>35</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="44"/>
+        <v>41</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="38"/>
       <c r="I20" s="14">
         <v>1</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N20" s="14">
         <v>0</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -3178,40 +3208,40 @@
         <v>35</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="14">
         <v>1</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N21" s="14">
         <v>0</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="P21" s="14">
         <v>0</v>
@@ -3249,7 +3279,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="27" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -3268,40 +3298,40 @@
         <v>35</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="14">
         <v>1</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -3330,40 +3360,40 @@
         <v>38</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="I24" s="14">
         <v>1</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
@@ -3392,40 +3422,40 @@
         <v>38</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="14">
         <v>1</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="P25" s="14">
         <v>0</v>
@@ -3454,40 +3484,40 @@
         <v>35</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="14">
         <v>1</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P26" s="14">
         <v>0</v>
@@ -3514,40 +3544,40 @@
         <v>34</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="I27" s="14">
         <v>0</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P27" s="14">
         <v>0</v>
@@ -3576,38 +3606,38 @@
         <v>33</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="14">
         <v>0</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L28" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N28" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="M28" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>148</v>
-      </c>
       <c r="O28" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P28" s="14">
         <v>0</v>
@@ -3630,46 +3660,46 @@
         <v>26</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I29" s="14">
         <v>1</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="P29" s="14">
         <v>0</v>
@@ -3692,46 +3722,46 @@
         <v>27</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>39</v>
+        <v>302</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>114</v>
+        <v>307</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="I30" s="14">
         <v>1</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P30" s="14">
         <v>0</v>
@@ -3754,44 +3784,46 @@
         <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="45"/>
+        <v>41</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>311</v>
+      </c>
       <c r="I31" s="14">
         <v>1</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="P31" s="14">
         <v>0</v>
@@ -3814,46 +3846,46 @@
         <v>29</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I32" s="14">
         <v>1</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N32" s="14">
         <v>0</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P32" s="14">
         <v>0</v>
@@ -3876,44 +3908,44 @@
         <v>30</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="45"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="14">
         <v>1</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="P33" s="14">
         <v>0</v>
@@ -3932,7 +3964,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="G10:H10"/>
@@ -3940,17 +3977,11 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3960,10 +3991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B28"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3973,218 +4004,340 @@
     <col min="3" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="30">
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>276</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>2</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>277</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="30">
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>5</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>281</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>7</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>282</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>8</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="30">
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
         <v>10</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>285</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="30">
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>12</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="30">
         <v>13</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>288</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
         <v>14</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>289</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="30">
         <v>15</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>290</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="30">
         <v>16</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="30">
         <v>17</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="30">
         <v>18</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="30">
         <v>19</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="30">
         <v>20</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="30">
         <v>21</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>296</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="30">
         <v>22</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="30">
         <v>23</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="30">
         <v>24</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="30">
         <v>25</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>312</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B33" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4196,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4210,284 +4363,287 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="E2" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="F3" s="25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B7" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>193</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="A12" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="E13" s="25" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B15" s="25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B17" s="25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B18" s="25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B19" s="26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B21" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B22" s="25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4662,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4516,27 +4672,27 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C1" s="30" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -4547,13 +4703,13 @@
         <v>28</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>27</v>
@@ -4572,13 +4728,13 @@
         <v>28</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>29</v>
@@ -4594,16 +4750,16 @@
         <v>103</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>27</v>
@@ -4622,16 +4778,16 @@
         <v>28</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -4644,19 +4800,19 @@
         <v>105</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
@@ -4669,19 +4825,19 @@
         <v>201</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
@@ -4694,16 +4850,16 @@
         <v>202</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>29</v>
@@ -4719,16 +4875,16 @@
         <v>203</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>29</v>
@@ -4744,19 +4900,19 @@
         <v>204</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
@@ -4769,10 +4925,10 @@
         <v>205</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>31</v>
@@ -4781,7 +4937,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -4794,13 +4950,13 @@
         <v>206</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>30</v>
@@ -4819,16 +4975,16 @@
         <v>207</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>29</v>
@@ -4845,10 +5001,10 @@
         <v>208</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>28</v>
@@ -4857,7 +5013,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
@@ -4874,10 +5030,10 @@
         <v>28</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>29</v>
@@ -4897,19 +5053,19 @@
         <v>302</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
@@ -4923,16 +5079,16 @@
         <v>303</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>29</v>
@@ -4949,19 +5105,19 @@
         <v>304</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H19" s="34"/>
       <c r="I19" s="35"/>
@@ -4975,19 +5131,19 @@
         <v>305</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
@@ -5001,16 +5157,16 @@
         <v>306</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F21" s="31" t="s">
         <v>30</v>
@@ -5027,16 +5183,16 @@
         <v>307</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>29</v>
@@ -5052,16 +5208,16 @@
         <v>308</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F23" s="31" t="s">
         <v>27</v>
@@ -5077,16 +5233,16 @@
         <v>309</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>27</v>
@@ -5105,16 +5261,16 @@
         <v>28</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -5127,16 +5283,16 @@
         <v>402</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>27</v>
@@ -5155,16 +5311,16 @@
         <v>28</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -5177,19 +5333,19 @@
         <v>404</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -5202,13 +5358,13 @@
         <v>405</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>29</v>
@@ -5227,19 +5383,19 @@
         <v>406</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="31"/>
@@ -5252,19 +5408,19 @@
         <v>407</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I31" s="31"/>
       <c r="J31" s="31"/>
@@ -5277,19 +5433,19 @@
         <v>408</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
@@ -5302,19 +5458,19 @@
         <v>409</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
@@ -5330,16 +5486,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
@@ -5352,16 +5508,16 @@
         <v>411</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F35" s="31" t="s">
         <v>29</v>
@@ -5380,13 +5536,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F36" s="31" t="s">
         <v>27</v>
@@ -5405,16 +5561,16 @@
         <v>28</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="31"/>
@@ -5427,19 +5583,19 @@
         <v>502</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I38" s="31"/>
       <c r="J38" s="31"/>
@@ -5452,19 +5608,19 @@
         <v>503</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
@@ -5477,16 +5633,16 @@
         <v>504</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F40" s="31" t="s">
         <v>30</v>
@@ -5502,19 +5658,19 @@
         <v>505</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
@@ -5527,19 +5683,19 @@
         <v>506</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
@@ -5555,16 +5711,16 @@
         <v>28</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="31"/>
@@ -5577,16 +5733,16 @@
         <v>508</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F44" s="31" t="s">
         <v>27</v>
@@ -5602,19 +5758,19 @@
         <v>509</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>30</v>
       </c>
       <c r="F45" s="31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>

--- a/控制信号101.xlsx
+++ b/控制信号101.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指令译码" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="334">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -793,18 +793,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SpeReg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -817,10 +809,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -837,59 +825,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第一位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zero</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后两位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4--2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3--0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4--0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7--0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>后两位是Imm在指令译码中的位数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sign10-0 (B)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1228,7 +1168,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DstReg</t>
+    <t>SP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNEZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1560,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,9 +1707,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1718,6 +1783,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2027,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2040,7 +2111,7 @@
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="28"/>
+    <col min="15" max="15" width="8.83203125" style="27"/>
     <col min="17" max="17" width="9.5" customWidth="1"/>
     <col min="18" max="18" width="27.5" customWidth="1"/>
     <col min="19" max="19" width="10.6640625" customWidth="1"/>
@@ -2048,21 +2119,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="45" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="45" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="49"/>
+      <c r="Q1" s="48"/>
       <c r="R1" s="11" t="s">
         <v>134</v>
       </c>
@@ -2088,7 +2159,7 @@
       <c r="N2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>118</v>
       </c>
       <c r="P2" s="14" t="s">
@@ -2188,10 +2259,10 @@
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
@@ -2210,8 +2281,8 @@
       <c r="N4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="27" t="s">
-        <v>227</v>
+      <c r="O4" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="P4" s="14">
         <v>0</v>
@@ -2272,8 +2343,8 @@
       <c r="N5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="27" t="s">
-        <v>228</v>
+      <c r="O5" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="P5" s="14">
         <v>0</v>
@@ -2310,10 +2381,10 @@
       <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="14">
         <v>1</v>
       </c>
@@ -2332,8 +2403,8 @@
       <c r="N6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="27" t="s">
-        <v>227</v>
+      <c r="O6" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="P6" s="14">
         <v>0</v>
@@ -2394,8 +2465,8 @@
       <c r="N7" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="O7" s="27" t="s">
-        <v>227</v>
+      <c r="O7" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="P7" s="14">
         <v>0</v>
@@ -2456,8 +2527,8 @@
       <c r="N8" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="O8" s="27" t="s">
-        <v>229</v>
+      <c r="O8" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="P8" s="14">
         <v>0</v>
@@ -2491,11 +2562,11 @@
       <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="14">
         <v>0</v>
       </c>
@@ -2514,8 +2585,8 @@
       <c r="N9" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O9" s="27" t="s">
-        <v>226</v>
+      <c r="O9" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="P9" s="14">
         <v>0</v>
@@ -2552,10 +2623,10 @@
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="14">
         <v>0</v>
       </c>
@@ -2574,8 +2645,8 @@
       <c r="N10" s="14">
         <v>0</v>
       </c>
-      <c r="O10" s="27" t="s">
-        <v>230</v>
+      <c r="O10" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -2612,10 +2683,10 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14">
         <v>0</v>
       </c>
@@ -2634,8 +2705,8 @@
       <c r="N11" s="14">
         <v>0</v>
       </c>
-      <c r="O11" s="27" t="s">
-        <v>232</v>
+      <c r="O11" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -2672,10 +2743,10 @@
       <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="42"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="14">
         <v>0</v>
       </c>
@@ -2694,8 +2765,8 @@
       <c r="N12" s="14">
         <v>0</v>
       </c>
-      <c r="O12" s="27" t="s">
-        <v>231</v>
+      <c r="O12" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="P12" s="14">
         <v>0</v>
@@ -2756,8 +2827,8 @@
       <c r="N13" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="O13" s="27" t="s">
-        <v>233</v>
+      <c r="O13" s="26" t="s">
+        <v>218</v>
       </c>
       <c r="P13" s="14">
         <v>0</v>
@@ -2794,10 +2865,10 @@
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="14">
         <v>0</v>
       </c>
@@ -2816,8 +2887,8 @@
       <c r="N14" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="O14" s="27" t="s">
-        <v>234</v>
+      <c r="O14" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -2854,10 +2925,10 @@
       <c r="F15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="14">
         <v>1</v>
       </c>
@@ -2876,8 +2947,8 @@
       <c r="N15" s="14">
         <v>0</v>
       </c>
-      <c r="O15" s="27" t="s">
-        <v>235</v>
+      <c r="O15" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="P15" s="14">
         <v>0</v>
@@ -2938,8 +3009,8 @@
       <c r="N16" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="27" t="s">
-        <v>235</v>
+      <c r="O16" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="P16" s="14">
         <v>1</v>
@@ -2976,10 +3047,10 @@
       <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="14">
         <v>1</v>
       </c>
@@ -2998,8 +3069,8 @@
       <c r="N17" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="O17" s="27" t="s">
-        <v>235</v>
+      <c r="O17" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="P17" s="14">
         <v>1</v>
@@ -3036,10 +3107,10 @@
       <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="14">
         <v>1</v>
       </c>
@@ -3058,8 +3129,8 @@
       <c r="N18" s="14">
         <v>0</v>
       </c>
-      <c r="O18" s="27" t="s">
-        <v>309</v>
+      <c r="O18" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
@@ -3096,10 +3167,10 @@
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="14">
         <v>1</v>
       </c>
@@ -3118,8 +3189,8 @@
       <c r="N19" s="14">
         <v>0</v>
       </c>
-      <c r="O19" s="27" t="s">
-        <v>309</v>
+      <c r="O19" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="P19" s="14">
         <v>0</v>
@@ -3156,10 +3227,10 @@
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="14">
         <v>1</v>
       </c>
@@ -3178,8 +3249,8 @@
       <c r="N20" s="14">
         <v>0</v>
       </c>
-      <c r="O20" s="27" t="s">
-        <v>309</v>
+      <c r="O20" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -3240,8 +3311,8 @@
       <c r="N21" s="14">
         <v>0</v>
       </c>
-      <c r="O21" s="27" t="s">
-        <v>309</v>
+      <c r="O21" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="P21" s="14">
         <v>0</v>
@@ -3278,8 +3349,8 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="27" t="s">
-        <v>236</v>
+      <c r="O22" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -3330,8 +3401,8 @@
       <c r="N23" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="27" t="s">
-        <v>237</v>
+      <c r="O23" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -3392,8 +3463,8 @@
       <c r="N24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="27" t="s">
-        <v>238</v>
+      <c r="O24" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
@@ -3454,8 +3525,8 @@
       <c r="N25" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="O25" s="27" t="s">
-        <v>239</v>
+      <c r="O25" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="P25" s="14">
         <v>0</v>
@@ -3516,8 +3587,8 @@
       <c r="N26" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="O26" s="27" t="s">
-        <v>240</v>
+      <c r="O26" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="P26" s="14">
         <v>0</v>
@@ -3576,8 +3647,8 @@
       <c r="N27" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="O27" s="27" t="s">
-        <v>241</v>
+      <c r="O27" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="P27" s="14">
         <v>0</v>
@@ -3614,10 +3685,10 @@
       <c r="F28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="39"/>
+      <c r="H28" s="38"/>
       <c r="I28" s="14">
         <v>0</v>
       </c>
@@ -3636,8 +3707,8 @@
       <c r="N28" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="27" t="s">
-        <v>235</v>
+      <c r="O28" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="P28" s="14">
         <v>0</v>
@@ -3660,13 +3731,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>50</v>
@@ -3678,7 +3749,7 @@
         <v>44</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I29" s="14">
         <v>1</v>
@@ -3689,17 +3760,17 @@
       <c r="K29" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="28" t="s">
         <v>172</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>248</v>
+        <v>232</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>233</v>
       </c>
       <c r="P29" s="14">
         <v>0</v>
@@ -3722,13 +3793,13 @@
         <v>27</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>65</v>
@@ -3740,7 +3811,7 @@
         <v>44</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="I30" s="14">
         <v>1</v>
@@ -3760,8 +3831,8 @@
       <c r="N30" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="O30" s="27" t="s">
-        <v>242</v>
+      <c r="O30" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="P30" s="14">
         <v>0</v>
@@ -3784,31 +3855,31 @@
         <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="37" t="s">
-        <v>311</v>
+      <c r="H31" s="36" t="s">
+        <v>296</v>
       </c>
       <c r="I31" s="14">
         <v>1</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>138</v>
@@ -3820,10 +3891,10 @@
         <v>137</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>254</v>
+        <v>298</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>239</v>
       </c>
       <c r="P31" s="14">
         <v>0</v>
@@ -3884,8 +3955,8 @@
       <c r="N32" s="14">
         <v>0</v>
       </c>
-      <c r="O32" s="27" t="s">
-        <v>235</v>
+      <c r="O32" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="P32" s="14">
         <v>0</v>
@@ -3908,7 +3979,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>34</v>
@@ -3917,15 +3988,15 @@
         <v>107</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="14">
         <v>1</v>
       </c>
@@ -3942,10 +4013,10 @@
         <v>137</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>255</v>
+        <v>300</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="P33" s="14">
         <v>0</v>
@@ -3999,345 +4070,345 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="30"/>
-    <col min="2" max="2" width="12.1640625" style="30" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="30"/>
+    <col min="1" max="1" width="8.83203125" style="29"/>
+    <col min="2" max="2" width="12.1640625" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
-        <v>273</v>
+      <c r="A2" s="30" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>275</v>
+      <c r="A3" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>276</v>
+      <c r="B4" s="30" t="s">
+        <v>261</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>277</v>
+      <c r="B5" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>278</v>
+      <c r="B6" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>279</v>
+      <c r="B7" s="30" t="s">
+        <v>264</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>280</v>
+      <c r="B8" s="30" t="s">
+        <v>265</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>281</v>
+      <c r="B9" s="30" t="s">
+        <v>266</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>7</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>282</v>
+      <c r="B10" s="30" t="s">
+        <v>267</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>8</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>283</v>
+      <c r="B11" s="30" t="s">
+        <v>268</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>284</v>
+      <c r="B12" s="30" t="s">
+        <v>269</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>285</v>
+      <c r="B13" s="30" t="s">
+        <v>270</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>11</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>286</v>
+      <c r="B14" s="30" t="s">
+        <v>271</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>12</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>287</v>
+      <c r="B15" s="30" t="s">
+        <v>272</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <v>13</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>288</v>
+      <c r="B16" s="30" t="s">
+        <v>273</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <v>14</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>289</v>
+      <c r="B17" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>15</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>290</v>
+      <c r="B18" s="30" t="s">
+        <v>275</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <v>16</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>291</v>
+      <c r="B19" s="30" t="s">
+        <v>276</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <v>17</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>292</v>
+      <c r="B20" s="30" t="s">
+        <v>277</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <v>18</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>293</v>
+      <c r="B21" s="30" t="s">
+        <v>278</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="30">
+      <c r="A22" s="29">
         <v>19</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>294</v>
+      <c r="B22" s="34" t="s">
+        <v>279</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="30">
+      <c r="A23" s="29">
         <v>20</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>295</v>
+      <c r="B23" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <v>21</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>296</v>
+      <c r="B24" s="30" t="s">
+        <v>281</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="30">
+      <c r="A25" s="29">
         <v>22</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>297</v>
+      <c r="B25" s="30" t="s">
+        <v>282</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="30">
+      <c r="A26" s="29">
         <v>23</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>298</v>
+      <c r="B26" s="30" t="s">
+        <v>283</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="30">
+      <c r="A27" s="29">
         <v>24</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>299</v>
+      <c r="B27" s="30" t="s">
+        <v>284</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="30">
+      <c r="A28" s="29">
         <v>25</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>300</v>
+      <c r="B28" s="30" t="s">
+        <v>285</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="30" t="s">
-        <v>301</v>
+      <c r="B29" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="30" t="s">
-        <v>302</v>
+      <c r="B30" s="29" t="s">
+        <v>287</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="30" t="s">
-        <v>303</v>
+      <c r="B31" s="29" t="s">
+        <v>288</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="30" t="s">
-        <v>305</v>
+      <c r="B32" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="30" t="s">
-        <v>304</v>
+      <c r="B33" s="29" t="s">
+        <v>289</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4347,10 +4418,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4358,15 +4429,17 @@
     <col min="1" max="1" width="9.6640625" style="25" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="25" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="25"/>
+    <col min="4" max="14" width="8.83203125" style="25"/>
+    <col min="15" max="15" width="8.83203125" style="52"/>
+    <col min="16" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>170</v>
       </c>
@@ -4394,11 +4467,17 @@
       <c r="K2" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
-        <v>316</v>
-      </c>
+      <c r="M2" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B3" s="25" t="s">
         <v>172</v>
       </c>
@@ -4417,8 +4496,14 @@
       <c r="K3" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N3" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
         <v>173</v>
       </c>
@@ -4431,8 +4516,14 @@
       <c r="G4" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N4" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>174</v>
       </c>
@@ -4445,63 +4536,106 @@
       <c r="G5" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N5" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
         <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B7" s="25" t="s">
         <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="25" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="N8" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="25" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="N9" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.15">
+      <c r="N10" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.15">
+      <c r="N11" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="O11" s="53" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="N12" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
       <c r="E13" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>187</v>
@@ -4510,7 +4644,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>187</v>
@@ -4519,18 +4653,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
-        <v>212</v>
-      </c>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B14" s="25" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>190</v>
@@ -4542,15 +4673,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.15">
       <c r="B15" s="25" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>192</v>
@@ -4562,89 +4693,88 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A16" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>194</v>
-      </c>
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.15">
+      <c r="C16" s="6"/>
       <c r="E16" s="25" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>194</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B17" s="25" t="s">
-        <v>218</v>
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A17" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>325</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B18" s="25" t="s">
-        <v>217</v>
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="B18" s="52" t="s">
+        <v>326</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B19" s="26" t="s">
-        <v>216</v>
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="B19" s="52" t="s">
+        <v>327</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>188</v>
+        <v>331</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B21" s="25" t="s">
-        <v>187</v>
+    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="B20" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="B21" s="52" t="s">
+        <v>328</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B22" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="B22" s="52"/>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4667,1203 +4797,1203 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="30"/>
+    <col min="1" max="16384" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
+        <v>101</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>102</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>103</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>104</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>105</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="D7" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="29">
+        <v>201</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
-        <v>101</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="29">
+        <v>202</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="D9" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="29">
+        <v>203</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
+        <v>204</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="29">
+        <v>205</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="29">
+        <v>206</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
+        <v>207</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="31">
+        <v>208</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
+        <v>301</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
-        <v>102</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="29">
+        <v>302</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="F17" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="29">
+        <v>303</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="F18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="29">
+        <v>304</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="F19" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="29">
+        <v>305</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="29">
+        <v>306</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="29">
+        <v>307</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
-        <v>103</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
+        <v>308</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
-        <v>104</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="29">
+        <v>309</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="29">
+        <v>401</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="C25" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="29">
+        <v>402</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="29">
+        <v>403</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
-        <v>105</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="E27" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="29">
+        <v>404</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="29">
+        <v>405</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="D29" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="29">
+        <v>406</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
-        <v>201</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="F30" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="29">
+        <v>407</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="29">
+        <v>408</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="29">
+        <v>409</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="E33" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="29">
+        <v>410</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="29">
+        <v>411</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
-        <v>202</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="29">
+        <v>412</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="D36" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="29">
+        <v>501</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
-        <v>203</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="C37" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="29">
+        <v>502</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="29">
+        <v>503</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="29">
+        <v>504</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="29">
+        <v>505</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="29">
+        <v>506</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="29">
+        <v>507</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="30">
-        <v>204</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="E43" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="29">
+        <v>508</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="29">
+        <v>509</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="30">
-        <v>205</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
-        <v>206</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
-        <v>207</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
-        <v>208</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
-        <v>301</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="30">
-        <v>302</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="30">
-        <v>303</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="30">
-        <v>304</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="30">
-        <v>305</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="30">
-        <v>306</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="30">
-        <v>307</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="30">
-        <v>308</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="30">
-        <v>309</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="30">
-        <v>401</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="30">
-        <v>402</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="30">
-        <v>403</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="30">
-        <v>404</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="30">
-        <v>405</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="30">
-        <v>406</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="30">
-        <v>407</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="30">
-        <v>408</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="30">
-        <v>409</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="30">
-        <v>410</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="30">
-        <v>411</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="30">
-        <v>412</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="30">
-        <v>501</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="30">
-        <v>502</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="30">
-        <v>503</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="30">
-        <v>504</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="30">
-        <v>505</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="30">
-        <v>506</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="30">
-        <v>507</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="30">
-        <v>508</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="30">
-        <v>509</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
+      <c r="F45" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/控制信号101.xlsx
+++ b/控制信号101.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="334">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1252,31 +1252,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Zero</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-0</t>
+    <t>7-0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1284,19 +1288,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>011</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1628,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1738,6 +1738,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="92" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -2119,21 +2122,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="44" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="44" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="48"/>
+      <c r="Q1" s="49"/>
       <c r="R1" s="11" t="s">
         <v>134</v>
       </c>
@@ -2259,10 +2262,10 @@
       <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
@@ -2381,10 +2384,10 @@
       <c r="F6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="14">
         <v>1</v>
       </c>
@@ -2562,11 +2565,11 @@
       <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="14">
         <v>0</v>
       </c>
@@ -2623,10 +2626,10 @@
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="14">
         <v>0</v>
       </c>
@@ -2683,10 +2686,10 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="14">
         <v>0</v>
       </c>
@@ -2743,10 +2746,10 @@
       <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="14">
         <v>0</v>
       </c>
@@ -2865,10 +2868,10 @@
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="14">
         <v>0</v>
       </c>
@@ -2925,10 +2928,10 @@
       <c r="F15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="14">
         <v>1</v>
       </c>
@@ -3047,10 +3050,10 @@
       <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="14">
         <v>1</v>
       </c>
@@ -3107,10 +3110,10 @@
       <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="14">
         <v>1</v>
       </c>
@@ -3167,10 +3170,10 @@
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="14">
         <v>1</v>
       </c>
@@ -3227,10 +3230,10 @@
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="37"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="14">
         <v>1</v>
       </c>
@@ -3685,10 +3688,10 @@
       <c r="F28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="38"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="14">
         <v>0</v>
       </c>
@@ -3993,10 +3996,10 @@
       <c r="F33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="14">
         <v>1</v>
       </c>
@@ -4421,7 +4424,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4430,7 +4433,7 @@
     <col min="2" max="2" width="16.6640625" style="25" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="25" customWidth="1"/>
     <col min="4" max="14" width="8.83203125" style="25"/>
-    <col min="15" max="15" width="8.83203125" style="52"/>
+    <col min="15" max="15" width="8.83203125" style="53"/>
     <col min="16" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
@@ -4499,7 +4502,7 @@
       <c r="N3" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="54" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4519,7 +4522,7 @@
       <c r="N4" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="54" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4539,7 +4542,7 @@
       <c r="N5" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="54" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4553,7 +4556,7 @@
       <c r="N6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="54" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4567,7 +4570,7 @@
       <c r="N7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="O7" s="53" t="s">
+      <c r="O7" s="54" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4581,7 +4584,7 @@
       <c r="N8" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="54" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4595,7 +4598,7 @@
       <c r="N9" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="54" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4603,7 +4606,7 @@
       <c r="N10" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="54" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4611,29 +4614,29 @@
       <c r="N11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="O11" s="53" t="s">
+      <c r="O11" s="54" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
       <c r="N12" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="O12" s="53" t="s">
+      <c r="O12" s="54" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="E13" s="25" t="s">
         <v>201</v>
       </c>
@@ -4654,11 +4657,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.15">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="53" t="s">
         <v>321</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>301</v>
@@ -4674,11 +4677,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.15">
-      <c r="B15" s="25" t="s">
-        <v>322</v>
+      <c r="A15" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>328</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>202</v>
@@ -4694,7 +4700,12 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.15">
-      <c r="C16" s="6"/>
+      <c r="B16" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="E16" s="25" t="s">
         <v>210</v>
       </c>
@@ -4712,15 +4723,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A17" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>329</v>
-      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="6"/>
       <c r="J17" s="25" t="s">
         <v>205</v>
       </c>
@@ -4729,11 +4733,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B18" s="52" t="s">
-        <v>326</v>
+      <c r="A18" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>324</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>206</v>
@@ -4743,11 +4750,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B19" s="52" t="s">
-        <v>327</v>
+      <c r="B19" s="53" t="s">
+        <v>325</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>207</v>
@@ -4757,23 +4764,23 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="53" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B21" s="52" t="s">
-        <v>328</v>
+      <c r="B21" s="53" t="s">
+        <v>326</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="B22" s="52"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="1"/>
     </row>
   </sheetData>
